--- a/src/test/resources/TestData/TestOutput.xlsx
+++ b/src/test/resources/TestData/TestOutput.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunus\Desktop\SimpleTestCase\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Git\SimpleTestCase\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A19" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,6 +390,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
+    <row r="15" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/TestData/TestOutput.xlsx
+++ b/src/test/resources/TestData/TestOutput.xlsx
@@ -365,9 +365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A2:C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/src/test/resources/TestData/TestOutput.xlsx
+++ b/src/test/resources/TestData/TestOutput.xlsx
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>TestStep</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Test Step</t>
   </si>
 </sst>
 </file>
@@ -77,12 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,28 +362,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/src/test/resources/TestData/TestOutput.xlsx
+++ b/src/test/resources/TestData/TestOutput.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Description</t>
   </si>
@@ -33,6 +33,77 @@
   </si>
   <si>
     <t>Test Step</t>
+  </si>
+  <si>
+    <t>Adım 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tamamlandı</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com.tr sitesini açılacak ve anasayfanın açıldığını onaylayacak</t>
+  </si>
+  <si>
+    <t>Adım 2.</t>
+  </si>
+  <si>
+    <t>Tamamlandı</t>
+  </si>
+  <si>
+    <t>Login ekranını açıp, bir kullanıcı ile login olacak ( daha önce siteye üyeliğin varsa o olabilir )</t>
+  </si>
+  <si>
+    <t>Adım 3-4-5</t>
+  </si>
+  <si>
+    <t>Ekranın üstündeki Search alanına 'samsung' yazip 'Ara' butonuna bas
+Sol menüden 'Telefon' sonrasında 'Cep Telefonu' tıklayacak
+Gelen sayfada samsung için sonuç bulunduğunu onaylayacak</t>
+  </si>
+  <si>
+    <t>Adım 6</t>
+  </si>
+  <si>
+    <t>Arama sonuçlarından 2. sayfaya tıklayacak ve açılan sayfada 2. sayfanın şu an gösterimde olduğunu onaylayacak</t>
+  </si>
+  <si>
+    <t>Adım 7 8 9</t>
+  </si>
+  <si>
+    <t>5. ürüne tıklayacak
+Ürün detayında 'Beğen' butonuna tıklayacak
+Ürün listenize eklendi. popup kontrolü yapacak</t>
+  </si>
+  <si>
+    <t>Adım 10 11</t>
+  </si>
+  <si>
+    <t>Ekranın en üstündeki hesabım alanında 'Beğendiklerim' tıklayacak
+Açılan sayfada bir önceki sayfada beğendiklerime alınmış ürünün bulunduğunu onaylayacak</t>
+  </si>
+  <si>
+    <t>Adım 12 13</t>
+  </si>
+  <si>
+    <t>Beğendiklerime alınmış ürün bulunup seçilecek ve sepete eklenecek
+'Ürün sepete eklendi' popup kontrolü yapacak</t>
+  </si>
+  <si>
+    <t>Adım 14 15 16</t>
+  </si>
+  <si>
+    <t>Sepetim sayfasına gidecek
+Sepete eklenen bu ürünün içine girilip 'Kaldır' butonuna basılacak, sepetimden çıkarılacak
+Bu ürünün artik sepette olmadığını onaylayacak</t>
+  </si>
+  <si>
+    <t>optiimMulakatTestiTesti</t>
+  </si>
+  <si>
+    <t>ITestResult=1ile Sonlanmıştır</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -362,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,6 +455,105 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="15" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/TestData/TestOutput.xlsx
+++ b/src/test/resources/TestData/TestOutput.xlsx
@@ -9,30 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
-    <sheet name="TestReport" sheetId="1" r:id="rId1"/>
+    <sheet name="TestReport 29-08-2022 21.24.00" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
+    <t>Test Step</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Test Step</t>
   </si>
   <si>
     <t>Adım 1.</t>
@@ -82,6 +77,9 @@
 Açılan sayfada bir önceki sayfada beğendiklerime alınmış ürünün bulunduğunu onaylayacak</t>
   </si>
   <si>
+    <t>optiimMulakatTestiTesti</t>
+  </si>
+  <si>
     <t>Adım 12 13</t>
   </si>
   <si>
@@ -95,9 +93,6 @@
     <t>Sepetim sayfasına gidecek
 Sepete eklenen bu ürünün içine girilip 'Kaldır' butonuna basılacak, sepetimden çıkarılacak
 Bu ürünün artik sepette olmadığını onaylayacak</t>
-  </si>
-  <si>
-    <t>optiimMulakatTestiTesti</t>
   </si>
   <si>
     <t>ITestResult=1ile Sonlanmıştır</t>
@@ -110,19 +105,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,9 +134,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,28 +416,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -523,29 +503,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -554,9 +534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>